--- a/Imp 10 - Parameters Optimization/valores-de-interesse.xlsx
+++ b/Imp 10 - Parameters Optimization/valores-de-interesse.xlsx
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,6 +1151,12 @@
       <c r="G14">
         <v>368.9494812217709</v>
       </c>
+      <c r="H14">
+        <v>0.57634196515865976</v>
+      </c>
+      <c r="I14">
+        <v>1.1173082687138738</v>
+      </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
